--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.04</v>
+        <v>3.41</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.81</v>
+        <v>3.64</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>22/07/2023 17:54</t>
+          <t>22/07/2023 17:55</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.57</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>4.05</v>
+        <v>3.81</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:55</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.48</v>
+        <v>2.13</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>4.26</v>
+        <v>2.01</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:55</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-basel/pl2RdzvG/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-servette/IRVUcGO9/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Servette</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
       <c r="J3" t="n">
-        <v>3.41</v>
+        <v>2.04</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.64</v>
+        <v>1.81</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>22/07/2023 17:55</t>
+          <t>22/07/2023 17:54</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.57</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.81</v>
+        <v>4.05</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>22/07/2023 17:55</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.13</v>
+        <v>3.48</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.01</v>
+        <v>4.26</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>22/07/2023 17:55</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-servette/IRVUcGO9/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-basel/pl2RdzvG/</t>
         </is>
       </c>
     </row>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.58</v>
+        <v>6.28</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>22/07/2023 21:12</t>
+          <t>24/07/2023 03:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.13</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>30/07/2023 16:28</t>
+          <t>30/07/2023 16:23</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.31</v>
+        <v>4.93</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>22/07/2023 21:12</t>
+          <t>24/07/2023 03:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.67</v>
+        <v>5.7</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>30/07/2023 16:24</t>
+          <t>30/07/2023 16:23</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>5.49</v>
+        <v>1.46</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>22/07/2023 21:12</t>
+          <t>24/07/2023 03:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.42</v>
+        <v>1.34</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>30/07/2023 16:28</t>
+          <t>30/07/2023 16:16</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-winterthur/xrR4Ag8F/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-young-boys/W4Q89DNL/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>6.28</v>
+        <v>1.58</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>24/07/2023 03:12</t>
+          <t>22/07/2023 21:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>8.529999999999999</v>
+        <v>2.13</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30/07/2023 16:23</t>
+          <t>30/07/2023 16:28</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.93</v>
+        <v>4.31</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>24/07/2023 03:12</t>
+          <t>22/07/2023 21:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>5.7</v>
+        <v>3.67</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30/07/2023 16:23</t>
+          <t>30/07/2023 16:24</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>5.49</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>24/07/2023 03:12</t>
+          <t>22/07/2023 21:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1.34</v>
+        <v>3.42</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>30/07/2023 16:16</t>
+          <t>30/07/2023 16:28</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-young-boys/W4Q89DNL/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-winterthur/xrR4Ag8F/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.84</v>
+        <v>2.68</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>30/07/2023 14:42</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.73</v>
+        <v>2.92</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>06/08/2023 16:26</t>
+          <t>06/08/2023 16:28</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.16</v>
+        <v>3.54</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>30/07/2023 14:42</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.2</v>
+        <v>3.66</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>06/08/2023 16:29</t>
+          <t>06/08/2023 16:28</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.83</v>
+        <v>2.58</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>30/07/2023 14:42</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.53</v>
+        <v>2.39</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>06/08/2023 16:29</t>
+          <t>06/08/2023 16:28</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-luzern/vBmzQY72/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-basel/x69i1kV1/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.68</v>
+        <v>1.84</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 14:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.92</v>
+        <v>1.73</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>06/08/2023 16:28</t>
+          <t>06/08/2023 16:26</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.54</v>
+        <v>4.16</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 14:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.66</v>
+        <v>4.2</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>06/08/2023 16:28</t>
+          <t>06/08/2023 16:29</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.58</v>
+        <v>3.83</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 14:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.39</v>
+        <v>4.53</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>06/08/2023 16:28</t>
+          <t>06/08/2023 16:29</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-basel/x69i1kV1/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-luzern/vBmzQY72/</t>
         </is>
       </c>
     </row>
@@ -2229,46 +2229,46 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.49</v>
+        <v>2.05</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.72</v>
+        <v>2.25</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 17:58</t>
+          <t>12/08/2023 17:59</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.74</v>
+        <v>3.64</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.91</v>
+        <v>3.69</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2276,24 +2276,24 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.96</v>
+        <v>3.33</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.96</v>
+        <v>3.14</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 17:58</t>
+          <t>12/08/2023 17:59</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-zurich/I1nvPhN8/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-grasshoppers/QRorOCxF/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>3</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Grasshoppers</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
       <c r="J21" t="n">
-        <v>2.05</v>
+        <v>3.49</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.25</v>
+        <v>3.72</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>12/08/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>08/08/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>12/08/2023 17:59</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>06/08/2023 16:42</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>12/08/2023 17:59</t>
-        </is>
-      </c>
       <c r="R21" t="n">
-        <v>3.33</v>
+        <v>1.96</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.14</v>
+        <v>1.96</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 17:59</t>
+          <t>12/08/2023 17:58</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-grasshoppers/QRorOCxF/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-zurich/I1nvPhN8/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.04</v>
+        <v>1.36</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.93</v>
+        <v>1.43</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>13/08/2023 16:29</t>
+          <t>13/08/2023 16:21</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.81</v>
+        <v>5.04</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.67</v>
+        <v>5.15</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>13/08/2023 16:29</t>
+          <t>13/08/2023 16:21</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.21</v>
+        <v>7.46</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.38</v>
+        <v>6.98</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>13/08/2023 16:29</t>
+          <t>13/08/2023 16:21</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-young-boys/IPQMGUUl/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-yverdon/O2RIHAFr/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.36</v>
+        <v>3.04</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.43</v>
+        <v>2.93</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>13/08/2023 16:21</t>
+          <t>13/08/2023 16:29</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>5.04</v>
+        <v>3.81</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>5.15</v>
+        <v>3.67</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>13/08/2023 16:21</t>
+          <t>13/08/2023 16:29</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>7.46</v>
+        <v>2.21</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>6.98</v>
+        <v>2.38</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>13/08/2023 16:21</t>
+          <t>13/08/2023 16:29</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-yverdon/O2RIHAFr/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-young-boys/IPQMGUUl/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.39</v>
+        <v>3.88</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.32</v>
+        <v>4.9</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:57</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.58</v>
+        <v>3.96</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.62</v>
+        <v>4.46</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:57</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.9</v>
+        <v>1.81</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.07</v>
+        <v>1.64</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:45</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-st-gallen/EiKVE8a1/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-servette/dGPQFlpe/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.88</v>
+        <v>2.39</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4.9</v>
+        <v>2.32</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:57</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.96</v>
+        <v>3.58</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.46</v>
+        <v>3.62</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:57</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.81</v>
+        <v>2.9</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.64</v>
+        <v>3.07</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:45</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-servette/dGPQFlpe/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-st-gallen/EiKVE8a1/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.15</v>
+        <v>2.43</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>27/08/2023 16:42</t>
+          <t>26/08/2023 21:42</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.99</v>
+        <v>2.69</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/09/2023 16:24</t>
+          <t>03/09/2023 16:28</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.67</v>
+        <v>3.49</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>27/08/2023 16:42</t>
+          <t>26/08/2023 21:42</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.76</v>
+        <v>3.5</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>03/09/2023 16:24</t>
+          <t>03/09/2023 16:28</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.26</v>
+        <v>2.91</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>27/08/2023 16:42</t>
+          <t>26/08/2023 21:42</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.75</v>
+        <v>2.52</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>03/09/2023 16:24</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-lugano/nJcCRoq7/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-zurich/hdb8SRT0/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,623 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.43</v>
+        <v>2.15</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>26/08/2023 21:42</t>
+          <t>27/08/2023 16:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.69</v>
+        <v>1.99</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/09/2023 16:28</t>
+          <t>03/09/2023 16:24</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.49</v>
+        <v>3.67</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>26/08/2023 21:42</t>
+          <t>27/08/2023 16:42</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/09/2023 16:28</t>
+          <t>03/09/2023 16:24</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.91</v>
+        <v>3.26</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>26/08/2023 21:42</t>
+          <t>27/08/2023 16:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.52</v>
+        <v>3.75</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 16:24</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/basel-zurich/hdb8SRT0/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-lugano/nJcCRoq7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45192.75</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>15/09/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:45</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>15/09/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:47</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>15/09/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:16</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-zurich/Q9dGQ5bD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45192.75</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>15/09/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>15/09/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>15/09/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-lausanne-ouchy/Q12ikkyE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45192.85416666666</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>15/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:24</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>15/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>15/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:22</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/grasshoppers-st-gallen/2RPKXM5t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45193.59375</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>16/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:13</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>16/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:13</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>16/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:13</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-basel/dlPOWtLn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45193.6875</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/luzern-servette/AiTSV0zg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45193.6875</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>4</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:21</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:21</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-lugano/hGIXUKka/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.26</v>
+        <v>3.69</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>3.42</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:56</t>
+          <t>05/08/2023 17:48</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>6.81</v>
+        <v>3.91</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>5.57</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:57</t>
+          <t>05/08/2023 17:58</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>10.25</v>
+        <v>1.97</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>7.23</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:57</t>
+          <t>05/08/2023 17:53</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-winterthur/jk7u4ioq/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-servette/AePC8XxS/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.69</v>
+        <v>1.26</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.42</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:48</t>
+          <t>05/08/2023 17:56</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.91</v>
+        <v>6.81</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>5.57</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:58</t>
+          <t>05/08/2023 17:57</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.97</v>
+        <v>10.25</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>7.23</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:53</t>
+          <t>05/08/2023 17:57</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-servette/AePC8XxS/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-winterthur/jk7u4ioq/</t>
         </is>
       </c>
     </row>
@@ -4226,6 +4226,98 @@
       <c r="V41" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-lugano/hGIXUKka/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45195.85416666666</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:28</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-grasshoppers/W6HyUv55/</t>
         </is>
       </c>
     </row>

--- a/2023/switzerland_super-league_2023-2024.xlsx
+++ b/2023/switzerland_super-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.69</v>
+        <v>1.26</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.42</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:48</t>
+          <t>05/08/2023 17:56</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.91</v>
+        <v>6.81</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>5.57</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:58</t>
+          <t>05/08/2023 17:57</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.97</v>
+        <v>10.25</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>31/07/2023 05:11</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.1</v>
+        <v>7.23</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>05/08/2023 17:53</t>
+          <t>05/08/2023 17:57</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-servette/AePC8XxS/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-winterthur/jk7u4ioq/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.26</v>
+        <v>3.69</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>3.42</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:56</t>
+          <t>05/08/2023 17:48</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6.81</v>
+        <v>3.91</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5.57</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:57</t>
+          <t>05/08/2023 17:58</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>10.25</v>
+        <v>1.97</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>31/07/2023 05:11</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>7.23</v>
+        <v>2.1</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>05/08/2023 17:57</t>
+          <t>05/08/2023 17:53</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/young-boys-winterthur/jk7u4ioq/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-servette/AePC8XxS/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>3</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Grasshoppers</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.05</v>
+        <v>3.49</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.25</v>
+        <v>3.72</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>12/08/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>08/08/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>12/08/2023 17:59</t>
         </is>
       </c>
-      <c r="N20" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>06/08/2023 16:42</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>12/08/2023 17:59</t>
-        </is>
-      </c>
       <c r="R20" t="n">
-        <v>3.33</v>
+        <v>1.96</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>06/08/2023 16:42</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.14</v>
+        <v>1.96</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 17:59</t>
+          <t>12/08/2023 17:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-grasshoppers/QRorOCxF/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-zurich/I1nvPhN8/</t>
         </is>
       </c>
     </row>
@@ -2321,46 +2321,46 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.49</v>
+        <v>2.05</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.72</v>
+        <v>2.25</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12/08/2023 17:58</t>
+          <t>12/08/2023 17:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.74</v>
+        <v>3.64</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.91</v>
+        <v>3.69</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,24 +2368,24 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.96</v>
+        <v>3.33</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 16:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.96</v>
+        <v>3.14</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 17:58</t>
+          <t>12/08/2023 17:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/lausanne-ouchy-zurich/I1nvPhN8/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/winterthur-grasshoppers/QRorOCxF/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.88</v>
+        <v>2.39</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4.9</v>
+        <v>2.32</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:57</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.96</v>
+        <v>3.58</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.46</v>
+        <v>3.62</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:57</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.81</v>
+        <v>2.9</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.64</v>
+        <v>3.07</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>26/08/2023 17:45</t>
+          <t>26/08/2023 17:59</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-servette/dGPQFlpe/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-st-gallen/EiKVE8a1/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.39</v>
+        <v>3.88</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.32</v>
+        <v>4.9</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:57</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.58</v>
+        <v>3.96</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.62</v>
+        <v>4.46</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:57</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.9</v>
+        <v>1.81</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.07</v>
+        <v>1.64</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>26/08/2023 17:59</t>
+          <t>26/08/2023 17:45</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-st-gallen/EiKVE8a1/</t>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/yverdon-servette/dGPQFlpe/</t>
         </is>
       </c>
     </row>
@@ -4318,6 +4318,282 @@
       <c r="V42" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/switzerland/super-league/zurich-grasshoppers/W6HyUv55/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45196.85416666666</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>24/09/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>27/09/2023 19:35</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>24/09/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>27/09/2023 19:35</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>24/09/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>27/09/2023 19:35</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/lugano-lausanne/0tMuTbKB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45196.85416666666</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/servette-winterthur/vXKqSIZH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45196.85416666666</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/switzerland/super-league/st-gallen-young-boys/MeAlRxkO/</t>
         </is>
       </c>
     </row>
